--- a/Team Details.xlsx
+++ b/Team Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRAKTIKUM\praktikumML_285_283\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{343A7B8E-2D8E-4989-A1AA-0707C1FC09D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E035D8-1CFD-4748-8883-4A581C258F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EFB47B82-8F9A-47DC-BEE4-0C6B9603E286}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
